--- a/Travis_County/Documentation/Travis_County_2018_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2018_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QESL' 'QSERV' 'QNOHLTH' 'QFHH'
+          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QPOVTY' 'QNOAUTO']</t>
+          <t>['QRENTER' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -584,45 +584,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7145302530188442</v>
+        <v>0.7994959208161639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04770843708581711</v>
+        <v>0.1373791393629499</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3603295161363828</v>
+        <v>0.2117197775455885</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.09691264095789663</v>
+        <v>-0.03267939314330986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07246473123299353</v>
+        <v>-0.2000727810852031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7861441588175323</v>
+        <v>0.7145302549585153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1131783488264941</v>
+        <v>0.04770843529259206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08480976417840559</v>
+        <v>-0.3603295209201605</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02097332827659355</v>
+        <v>-0.09691264624093554</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.202824100960465</v>
+        <v>0.07246473435606789</v>
       </c>
     </row>
     <row r="4">
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8778539373436152</v>
+        <v>0.8778539348527536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1961858984715864</v>
+        <v>0.1961858998991614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1910468552603568</v>
+        <v>0.1910468540119059</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01699417426304536</v>
+        <v>-0.01699417453273303</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1019276630317929</v>
+        <v>-0.101927663644398</v>
       </c>
     </row>
     <row r="5">
@@ -654,41 +654,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8230600198283474</v>
+        <v>0.8230600156717087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3465122425357036</v>
+        <v>0.3465122419874174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1359332278737559</v>
+        <v>0.1359332282147168</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09949764828077551</v>
+        <v>-0.09949764819139806</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.128834484837069</v>
+        <v>-0.128834485462655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7994959191451393</v>
+        <v>0.674185826369314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1373791400486645</v>
+        <v>0.3959044374378016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2117197755828371</v>
+        <v>0.3242825315652572</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03267939666174521</v>
+        <v>-0.08306123929888921</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2000727775184605</v>
+        <v>-0.1222630319538769</v>
       </c>
     </row>
     <row r="7">
@@ -698,41 +698,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5274953373905897</v>
+        <v>0.5274953374705829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3608946338273608</v>
+        <v>0.3608946324003629</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3130727401064497</v>
+        <v>0.3130727378549178</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1262082767387144</v>
+        <v>-0.1262082780672381</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1039248313992763</v>
+        <v>-0.1039248311319871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6741858253716553</v>
+        <v>0.7861441557599252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3959044375696429</v>
+        <v>0.1131783513136548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3242825310005271</v>
+        <v>0.08480976454901358</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08306124067400172</v>
+        <v>-0.02097332649800576</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1222630308189851</v>
+        <v>-0.2028241029855029</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5602157021443547</v>
+        <v>0.5602157030773541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2825588706571864</v>
+        <v>0.2825588688933995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04381734148890121</v>
+        <v>0.0438173405969373</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06322069593664649</v>
+        <v>-0.06322069755528982</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2438533300079437</v>
+        <v>0.2438533320887795</v>
       </c>
     </row>
     <row r="10">
@@ -764,63 +764,63 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4745258690492036</v>
+        <v>0.4745258699653024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7338494744073357</v>
+        <v>0.7338494787602946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2474036477225879</v>
+        <v>0.2474036448717463</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2041762660991724</v>
+        <v>-0.2041762684040324</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03151731653352679</v>
+        <v>0.03151731875835603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3004626939429378</v>
+        <v>0.2167683068542147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7871221200412026</v>
+        <v>0.8465873652073906</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06641551534556027</v>
+        <v>0.3549485705528752</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04968038785544409</v>
+        <v>-0.1549872515967354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0243779153798787</v>
+        <v>-0.04401484988952493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2167683081955244</v>
+        <v>0.3004626961311739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8465873599121115</v>
+        <v>0.7871221120641494</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3549485700833512</v>
+        <v>-0.06641551392457994</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1549872537882233</v>
+        <v>-0.04968038941071617</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04401484850925617</v>
+        <v>0.02437791597923406</v>
       </c>
     </row>
     <row r="13">
@@ -830,63 +830,63 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005926326548583875</v>
+        <v>-0.005926325877624651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1780075792816328</v>
+        <v>0.1780075795371807</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7703798397734248</v>
+        <v>0.7703798402244358</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4138178507791545</v>
+        <v>-0.4138178471971612</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1132850028455544</v>
+        <v>-0.113285004692893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.302378052373571</v>
+        <v>0.1139529750184587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1695709342928196</v>
+        <v>0.06106384788880601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5567092083252388</v>
+        <v>0.6847406386209034</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2796814515878504</v>
+        <v>-0.05243788967864752</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09476063765050319</v>
+        <v>0.007215024161351464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1139529731503984</v>
+        <v>0.30237805427413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06106384656428584</v>
+        <v>0.1695709322231474</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6847406496463782</v>
+        <v>0.5567092082097569</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.05243788467146621</v>
+        <v>-0.2796814541686634</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007215022142398674</v>
+        <v>0.09476064028937362</v>
       </c>
     </row>
     <row r="16">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3203145695277319</v>
+        <v>-0.3203145701669814</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2374924606851316</v>
+        <v>-0.2374924587088247</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3581218293324941</v>
+        <v>-0.3581218299967053</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7551459413090265</v>
+        <v>0.7551459433313505</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03604536815313201</v>
+        <v>-0.03604536917202766</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01897725485337062</v>
+        <v>-0.01897725367779375</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1465327647141804</v>
+        <v>-0.1465327650887838</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1088299655319854</v>
+        <v>-0.1088299637622092</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6889723563720389</v>
+        <v>0.6889723601010662</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6048116223306181</v>
+        <v>0.6048116250479233</v>
       </c>
     </row>
     <row r="18">
@@ -940,63 +940,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00671732361811624</v>
+        <v>0.006717324492375218</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04185582853573068</v>
+        <v>-0.04185583042536035</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1566751774417917</v>
+        <v>-0.1566751832601151</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8301134384929014</v>
+        <v>0.8301134247615883</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08972562088193239</v>
+        <v>0.08972562483974808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2650015961413573</v>
+        <v>-0.01889530831920495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0849703009090253</v>
+        <v>-0.05607244710897504</v>
       </c>
       <c r="D19" t="n">
-        <v>0.005596367336644616</v>
+        <v>0.002629353794068389</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04604931279649578</v>
+        <v>0.1873923108029742</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7314609906455867</v>
+        <v>0.8727849363988575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0188953052563114</v>
+        <v>-0.2650015953159094</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05607244985116602</v>
+        <v>0.08497029943500178</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002629353444583964</v>
+        <v>0.005596367963385742</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1873923068878629</v>
+        <v>-0.04604931491691285</v>
       </c>
       <c r="F20" t="n">
-        <v>0.872784959900765</v>
+        <v>0.7314609977986122</v>
       </c>
     </row>
   </sheetData>
@@ -1112,55 +1112,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.94480742838338</v>
+        <v>4.944807421852724</v>
       </c>
       <c r="C2" t="n">
-        <v>2.838952313681699</v>
+        <v>2.838952307033347</v>
       </c>
       <c r="D2" t="n">
-        <v>2.400259445983216</v>
+        <v>2.400259439223039</v>
       </c>
       <c r="E2" t="n">
-        <v>2.313501460572851</v>
+        <v>2.313501490430895</v>
       </c>
       <c r="F2" t="n">
-        <v>1.905085931326197</v>
+        <v>1.905085930346282</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54138557803174</v>
+        <v>1.541385597189871</v>
       </c>
       <c r="H2" t="n">
-        <v>1.24698781079312</v>
+        <v>1.246987809407878</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75193225500508</v>
+        <v>4.751932276312741</v>
       </c>
       <c r="J2" t="n">
-        <v>3.118803322812608</v>
+        <v>3.118803358447282</v>
       </c>
       <c r="K2" t="n">
-        <v>2.379793082399284</v>
+        <v>2.379793115689176</v>
       </c>
       <c r="L2" t="n">
-        <v>2.141113031473837</v>
+        <v>2.141113029411041</v>
       </c>
       <c r="M2" t="n">
-        <v>1.886066871937376</v>
+        <v>1.886066884967679</v>
       </c>
       <c r="N2" t="n">
-        <v>4.902928247119323</v>
+        <v>4.90292824224012</v>
       </c>
       <c r="O2" t="n">
-        <v>2.588309614892051</v>
+        <v>2.588309614263455</v>
       </c>
       <c r="P2" t="n">
-        <v>2.170494343468322</v>
+        <v>2.170494332427384</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.139559856952963</v>
+        <v>2.139559844454122</v>
       </c>
       <c r="R2" t="n">
-        <v>1.895944387254312</v>
+        <v>1.89594436622795</v>
       </c>
     </row>
     <row r="3">
@@ -1170,55 +1170,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1831410158660511</v>
+        <v>0.183141015624175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1051463819882111</v>
+        <v>0.1051463817419758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08889849799937836</v>
+        <v>0.08889849774900146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08568523928047594</v>
+        <v>0.08568524038632945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07055873819726655</v>
+        <v>0.0705587381609734</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05708835474191631</v>
+        <v>0.05708835545147672</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04618473373307852</v>
+        <v>0.04618473368177325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2262824883335753</v>
+        <v>0.2262824893482258</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1485144439434575</v>
+        <v>0.1485144456403468</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1133234801142516</v>
+        <v>0.1133234816994846</v>
       </c>
       <c r="L3" t="n">
-        <v>0.101957763403516</v>
+        <v>0.1019577633052877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08981270818749409</v>
+        <v>0.0898127088079847</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2580488551115434</v>
+        <v>0.2580488548547432</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1362268218364237</v>
+        <v>0.1362268218033397</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1142365443930696</v>
+        <v>0.1142365438119676</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1126084135238402</v>
+        <v>0.1126084128660064</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09978654669759535</v>
+        <v>0.09978654559094476</v>
       </c>
     </row>
     <row r="4">
@@ -1228,55 +1228,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1831410158660511</v>
+        <v>0.183141015624175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2882873978542622</v>
+        <v>0.2882873973661508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3771858958536405</v>
+        <v>0.3771858951151522</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4628711351341165</v>
+        <v>0.4628711355014817</v>
       </c>
       <c r="F4" t="n">
-        <v>0.533429873331383</v>
+        <v>0.5334298736624551</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5905182280732993</v>
+        <v>0.5905182291139318</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6367029618063779</v>
+        <v>0.636702962795705</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2262824883335753</v>
+        <v>0.2262824893482258</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3747969322770328</v>
+        <v>0.3747969349885725</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4881204123912844</v>
+        <v>0.4881204166880571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5900781757948004</v>
+        <v>0.5900781799933448</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6798908839822945</v>
+        <v>0.6798908888013295</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2580488551115434</v>
+        <v>0.2580488548547432</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3942756769479671</v>
+        <v>0.3942756766580828</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5085122213410367</v>
+        <v>0.5085122204700504</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6211206348648769</v>
+        <v>0.6211206333360568</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7209071815624722</v>
+        <v>0.7209071789270016</v>
       </c>
     </row>
     <row r="5">
@@ -1286,55 +1286,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2876396480808966</v>
+        <v>0.2876396472540655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1651419708962909</v>
+        <v>0.1651419702529537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1396231890411914</v>
+        <v>0.1396231884310012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1345764735213104</v>
+        <v>0.1345764750490454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1108189256683928</v>
+        <v>0.1108189254391975</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08966246140893083</v>
+        <v>0.08966246238403999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07253733138298696</v>
+        <v>0.0725373311896968</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3328217713527514</v>
+        <v>0.3328217704860987</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2184386457332249</v>
+        <v>0.2184386466807677</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1666789227272574</v>
+        <v>0.166678923877444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1499619509623712</v>
+        <v>0.1499619497549712</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1320987092243951</v>
+        <v>0.1320987092007183</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3579501795949045</v>
+        <v>0.3579501805472698</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1889658271140674</v>
+        <v>0.1889658277589907</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1584622088872479</v>
+        <v>0.1584622086604787</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1562037615990676</v>
+        <v>0.1562037612576044</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1384180228047126</v>
+        <v>0.1384180217756564</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.902928247119323</v>
+        <v>4.90292824224012</v>
       </c>
       <c r="C2" t="n">
-        <v>2.588309614892051</v>
+        <v>2.588309614263455</v>
       </c>
       <c r="D2" t="n">
-        <v>2.170494343468322</v>
+        <v>2.170494332427384</v>
       </c>
       <c r="E2" t="n">
-        <v>2.139559856952963</v>
+        <v>2.139559844454122</v>
       </c>
       <c r="F2" t="n">
-        <v>1.895944387254312</v>
+        <v>1.89594436622795</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2580488551115434</v>
+        <v>0.2580488548547432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1362268218364237</v>
+        <v>0.1362268218033397</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1142365443930696</v>
+        <v>0.1142365438119676</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1126084135238402</v>
+        <v>0.1126084128660064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09978654669759535</v>
+        <v>0.09978654559094476</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2580488551115434</v>
+        <v>0.2580488548547432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3942756769479671</v>
+        <v>0.3942756766580828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5085122213410367</v>
+        <v>0.5085122204700504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6211206348648769</v>
+        <v>0.6211206333360568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7209071815624722</v>
+        <v>0.7209071789270016</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3579501795949045</v>
+        <v>0.3579501805472698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1889658271140674</v>
+        <v>0.1889658277589907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1584622088872479</v>
+        <v>0.1584622086604787</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1562037615990676</v>
+        <v>0.1562037612576044</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1384180228047126</v>
+        <v>0.1384180217756564</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QESL', 'QSERV', 'QNOHLTH', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QRENTER', 'QPOVTY', 'QNOAUTO', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2018_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2018_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QFHH'
+          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'QSERV' 'PPUNIT' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
         </is>
       </c>
     </row>
@@ -584,111 +584,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7994959208161639</v>
+        <v>0.8778539373198129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1373791393629499</v>
+        <v>0.1961858985910007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2117197775455885</v>
+        <v>0.1910468546181161</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03267939314330986</v>
+        <v>-0.01699417420770752</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2000727810852031</v>
+        <v>-0.1019276638599805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7145302549585153</v>
+        <v>0.6741858252072547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04770843529259206</v>
+        <v>0.395904437455113</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3603295209201605</v>
+        <v>0.3242825278758605</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09691264624093554</v>
+        <v>-0.08306124255355005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07246473435606789</v>
+        <v>-0.1222630308602839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8778539348527536</v>
+        <v>0.8230600205379758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1961858998991614</v>
+        <v>0.3465122419842337</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1910468540119059</v>
+        <v>0.1359332259831516</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01699417453273303</v>
+        <v>-0.09949764875043474</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.101927663644398</v>
+        <v>-0.1288344852826672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8230600156717087</v>
+        <v>0.7861441562891103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3465122419874174</v>
+        <v>0.1131783507653346</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1359332282147168</v>
+        <v>0.08480976411433631</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09949764819139806</v>
+        <v>-0.02097332743634379</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.128834485462655</v>
+        <v>-0.2028241018262091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.674185826369314</v>
+        <v>0.7994959180641443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3959044374378016</v>
+        <v>0.1373791414538666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3242825315652572</v>
+        <v>0.2117197750753607</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.08306123929888921</v>
+        <v>-0.03267939613252386</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1222630319538769</v>
+        <v>-0.2000727787674356</v>
       </c>
     </row>
     <row r="7">
@@ -698,41 +698,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5274953374705829</v>
+        <v>0.5274953383228861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3608946324003629</v>
+        <v>0.3608946332621269</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3130727378549178</v>
+        <v>0.3130727373546559</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1262082780672381</v>
+        <v>-0.12620827902752</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1039248311319871</v>
+        <v>-0.1039248309195177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7861441557599252</v>
+        <v>0.7145302557942311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1131783513136548</v>
+        <v>0.04770843261828678</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08480976454901358</v>
+        <v>-0.360329519637929</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02097332649800576</v>
+        <v>-0.09691264316890173</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2028241029855029</v>
+        <v>0.07246473347003797</v>
       </c>
     </row>
     <row r="9">
@@ -742,41 +742,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5602157030773541</v>
+        <v>0.5602157015536745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2825588688933995</v>
+        <v>0.2825588689746906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0438173405969373</v>
+        <v>0.04381734064341006</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06322069755528982</v>
+        <v>-0.06322069587781604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2438533320887795</v>
+        <v>0.2438533285379472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4745258699653024</v>
+        <v>0.3004626975424142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7338494787602946</v>
+        <v>0.7871221089135771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2474036448717463</v>
+        <v>-0.06641551519484395</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2041762684040324</v>
+        <v>-0.04968038965544463</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03151731875835603</v>
+        <v>0.02437791657265224</v>
       </c>
     </row>
     <row r="11">
@@ -786,41 +786,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2167683068542147</v>
+        <v>0.216768305342178</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8465873652073906</v>
+        <v>0.8465873730867031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3549485705528752</v>
+        <v>0.354948566411061</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1549872515967354</v>
+        <v>-0.1549872531483465</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04401484988952493</v>
+        <v>-0.04401484946014399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3004626961311739</v>
+        <v>0.4745258707485391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7871221120641494</v>
+        <v>0.7338494770001958</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06641551392457994</v>
+        <v>0.2474036425651826</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04968038941071617</v>
+        <v>-0.2041762692094784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02437791597923406</v>
+        <v>0.03151731856721085</v>
       </c>
     </row>
     <row r="13">
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005926325877624651</v>
+        <v>-0.005926325917869671</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1780075795371807</v>
+        <v>0.178007582342045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7703798402244358</v>
+        <v>0.7703798353923662</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4138178471971612</v>
+        <v>-0.4138178526097842</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.113285004692893</v>
+        <v>-0.1132850030675708</v>
       </c>
     </row>
     <row r="14">
@@ -852,19 +852,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1139529750184587</v>
+        <v>0.1139529744557564</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06106384788880601</v>
+        <v>0.0610638465645555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6847406386209034</v>
+        <v>0.684740650651452</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05243788967864752</v>
+        <v>-0.0524378874685547</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007215024161351464</v>
+        <v>0.007215022920330075</v>
       </c>
     </row>
     <row r="15">
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.30237805427413</v>
+        <v>0.302378054448073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1695709322231474</v>
+        <v>0.1695709323975085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5567092082097569</v>
+        <v>0.5567092092894744</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2796814541686634</v>
+        <v>-0.2796814556699185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09476064028937362</v>
+        <v>0.09476064025579044</v>
       </c>
     </row>
     <row r="16">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3203145701669814</v>
+        <v>-0.3203145706218354</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2374924587088247</v>
+        <v>-0.2374924589325277</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3581218299967053</v>
+        <v>-0.3581218255590515</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7551459433313505</v>
+        <v>0.7551459475351763</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03604536917202766</v>
+        <v>-0.036045370980173</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01897725367779375</v>
+        <v>-0.01897725462494169</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1465327650887838</v>
+        <v>-0.1465327638606888</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1088299637622092</v>
+        <v>-0.1088299618416257</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6889723601010662</v>
+        <v>0.6889723609664848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6048116250479233</v>
+        <v>0.6048116221716502</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006717324492375218</v>
+        <v>0.006717324161972233</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04185583042536035</v>
+        <v>-0.04185583076521299</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1566751832601151</v>
+        <v>-0.1566751783511524</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8301134247615883</v>
+        <v>0.8301134267877606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08972562483974808</v>
+        <v>0.08972562244371504</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01889530831920495</v>
+        <v>-0.01889530602044841</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.05607244710897504</v>
+        <v>-0.05607244869048971</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002629353794068389</v>
+        <v>0.002629354508580523</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1873923108029742</v>
+        <v>0.1873923098069388</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8727849363988575</v>
+        <v>0.8727849548743269</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2650015953159094</v>
+        <v>-0.2650015957411608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08497029943500178</v>
+        <v>0.08497030038501488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005596367963385742</v>
+        <v>0.00559636693905655</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.04604931491691285</v>
+        <v>-0.04604931266875236</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7314609977986122</v>
+        <v>0.7314609926375157</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.246987809407878</v>
       </c>
       <c r="I2" t="n">
-        <v>4.751932276312741</v>
+        <v>4.751932274394586</v>
       </c>
       <c r="J2" t="n">
-        <v>3.118803358447282</v>
+        <v>3.118803338643968</v>
       </c>
       <c r="K2" t="n">
-        <v>2.379793115689176</v>
+        <v>2.379793107208039</v>
       </c>
       <c r="L2" t="n">
-        <v>2.141113029411041</v>
+        <v>2.141113024585132</v>
       </c>
       <c r="M2" t="n">
-        <v>1.886066884967679</v>
+        <v>1.886066874346848</v>
       </c>
       <c r="N2" t="n">
-        <v>4.90292824224012</v>
+        <v>4.902928251207686</v>
       </c>
       <c r="O2" t="n">
-        <v>2.588309614263455</v>
+        <v>2.588309621432392</v>
       </c>
       <c r="P2" t="n">
-        <v>2.170494332427384</v>
+        <v>2.170494328484061</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.139559844454122</v>
+        <v>2.139559861011457</v>
       </c>
       <c r="R2" t="n">
-        <v>1.89594436622795</v>
+        <v>1.895944383163739</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.04618473368177325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2262824893482258</v>
+        <v>0.226282489256885</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1485144456403468</v>
+        <v>0.1485144446973318</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1133234816994846</v>
+        <v>0.1133234812956209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1019577633052877</v>
+        <v>0.1019577630754825</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0898127088079847</v>
+        <v>0.08981270830223084</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2580488548547432</v>
+        <v>0.2580488553267203</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1362268218033397</v>
+        <v>0.1362268221806522</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1142365438119676</v>
+        <v>0.1142365436044242</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1126084128660064</v>
+        <v>0.1126084137374451</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09978654559094476</v>
+        <v>0.09978654648230204</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.636702962795705</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2262824893482258</v>
+        <v>0.226282489256885</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3747969349885725</v>
+        <v>0.3747969339542169</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4881204166880571</v>
+        <v>0.4881204152498378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5900781799933448</v>
+        <v>0.5900781783253203</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6798908888013295</v>
+        <v>0.6798908866275511</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2580488548547432</v>
+        <v>0.2580488553267203</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3942756766580828</v>
+        <v>0.3942756775073726</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5085122204700504</v>
+        <v>0.5085122211117968</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6211206333360568</v>
+        <v>0.621120634849242</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7209071789270016</v>
+        <v>0.720907181331544</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.0725373311896968</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3328217704860987</v>
+        <v>0.3328217714158656</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2184386466807677</v>
+        <v>0.2184386459921605</v>
       </c>
       <c r="K5" t="n">
-        <v>0.166678923877444</v>
+        <v>0.1666789238163451</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1499619497549712</v>
+        <v>0.1499619498964333</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1320987092007183</v>
+        <v>0.1320987088791953</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3579501805472698</v>
+        <v>0.3579501800080476</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1889658277589907</v>
+        <v>0.1889658276520924</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1584622086604787</v>
+        <v>0.1584622078440457</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1562037612576044</v>
+        <v>0.1562037619454046</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1384180217756564</v>
+        <v>0.1384180225504098</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.90292824224012</v>
+        <v>4.902928251207686</v>
       </c>
       <c r="C2" t="n">
-        <v>2.588309614263455</v>
+        <v>2.588309621432392</v>
       </c>
       <c r="D2" t="n">
-        <v>2.170494332427384</v>
+        <v>2.170494328484061</v>
       </c>
       <c r="E2" t="n">
-        <v>2.139559844454122</v>
+        <v>2.139559861011457</v>
       </c>
       <c r="F2" t="n">
-        <v>1.89594436622795</v>
+        <v>1.895944383163739</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2580488548547432</v>
+        <v>0.2580488553267203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1362268218033397</v>
+        <v>0.1362268221806522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1142365438119676</v>
+        <v>0.1142365436044242</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1126084128660064</v>
+        <v>0.1126084137374451</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09978654559094476</v>
+        <v>0.09978654648230204</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2580488548547432</v>
+        <v>0.2580488553267203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3942756766580828</v>
+        <v>0.3942756775073726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5085122204700504</v>
+        <v>0.5085122211117968</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6211206333360568</v>
+        <v>0.621120634849242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7209071789270016</v>
+        <v>0.720907181331544</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3579501805472698</v>
+        <v>0.3579501800080476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1889658277589907</v>
+        <v>0.1889658276520924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1584622086604787</v>
+        <v>0.1584622078440457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1562037612576044</v>
+        <v>0.1562037619454046</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1384180217756564</v>
+        <v>0.1384180225504098</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'QSERV', 'PPUNIT', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2018_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2018_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'QSERV' 'PPUNIT' 'QFHH'
+          <t>['QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -584,155 +584,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8778539373198129</v>
+        <v>0.5274953379585156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1961858985910007</v>
+        <v>0.3608946325620632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1910468546181161</v>
+        <v>0.3130727392093795</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01699417420770752</v>
+        <v>-0.1262082763595171</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1019276638599805</v>
+        <v>-0.10392483115886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6741858252072547</v>
+        <v>0.786144157245031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.395904437455113</v>
+        <v>0.1131783495998638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3242825278758605</v>
+        <v>0.08480976424482217</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08306124255355005</v>
+        <v>-0.02097332736471048</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1222630308602839</v>
+        <v>-0.2028241015362909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8230600205379758</v>
+        <v>0.7994959196170861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3465122419842337</v>
+        <v>0.1373791394723209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1359332259831516</v>
+        <v>0.211719776206982</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09949764875043474</v>
+        <v>-0.0326793945777714</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1288344852826672</v>
+        <v>-0.2000727787374849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7861441562891103</v>
+        <v>0.8230600188201528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1131783507653346</v>
+        <v>0.3465122419334931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08480976411433631</v>
+        <v>0.1359332285180322</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02097332743634379</v>
+        <v>-0.09949764747652885</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2028241018262091</v>
+        <v>-0.1288344851589302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7994959180641443</v>
+        <v>0.8778539376176244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1373791414538666</v>
+        <v>0.196185898045183</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2117197750753607</v>
+        <v>0.1910468545985881</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03267939613252386</v>
+        <v>-0.01699417353382815</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2000727787674356</v>
+        <v>-0.1019276631332453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5274953383228861</v>
+        <v>0.7145302556558201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3608946332621269</v>
+        <v>0.04770843604974272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3130727373546559</v>
+        <v>-0.3603295215360905</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.12620827902752</v>
+        <v>-0.09691264601002293</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1039248309195177</v>
+        <v>0.07246473358154387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7145302557942311</v>
+        <v>0.6741858254799591</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04770843261828678</v>
+        <v>0.3959044364447006</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.360329519637929</v>
+        <v>0.324282530897769</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09691264316890173</v>
+        <v>-0.08306123956933575</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07246473347003797</v>
+        <v>-0.1222630309176319</v>
       </c>
     </row>
     <row r="9">
@@ -742,85 +742,85 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5602157015536745</v>
+        <v>0.5602157023173483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2825588689746906</v>
+        <v>0.2825588698036734</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04381734064341006</v>
+        <v>0.04381734165852227</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06322069587781604</v>
+        <v>-0.06322069616271428</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2438533285379472</v>
+        <v>0.2438533305152224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3004626975424142</v>
+        <v>0.216768309646086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7871221089135771</v>
+        <v>0.8465873572509584</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.06641551519484395</v>
+        <v>0.3549485723718843</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04968038965544463</v>
+        <v>-0.1549872521244396</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02437791657265224</v>
+        <v>-0.04401484876180284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.216768305342178</v>
+        <v>0.474525869952907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8465873730867031</v>
+        <v>0.7338494751353548</v>
       </c>
       <c r="D11" t="n">
-        <v>0.354948566411061</v>
+        <v>0.247403648082836</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1549872531483465</v>
+        <v>-0.2041762660230629</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04401484946014399</v>
+        <v>0.03151731727370427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4745258707485391</v>
+        <v>0.3004626931611233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7338494770001958</v>
+        <v>0.7871221240119082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2474036425651826</v>
+        <v>-0.06641551582182338</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2041762692094784</v>
+        <v>-0.0496803877291036</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03151731856721085</v>
+        <v>0.02437791517645226</v>
       </c>
     </row>
     <row r="13">
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005926325917869671</v>
+        <v>-0.005926326639922076</v>
       </c>
       <c r="C13" t="n">
-        <v>0.178007582342045</v>
+        <v>0.1780075773328002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7703798353923662</v>
+        <v>0.7703798488407927</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4138178526097842</v>
+        <v>-0.4138178469644066</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1132850030675708</v>
+        <v>-0.1132850040875337</v>
       </c>
     </row>
     <row r="14">
@@ -852,19 +852,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1139529744557564</v>
+        <v>0.1139529751834322</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0610638465645555</v>
+        <v>0.06106384712282543</v>
       </c>
       <c r="D14" t="n">
-        <v>0.684740650651452</v>
+        <v>0.6847406410186511</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0524378874685547</v>
+        <v>-0.05243788577041029</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007215022920330075</v>
+        <v>0.007215023145616352</v>
       </c>
     </row>
     <row r="15">
@@ -874,63 +874,63 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.302378054448073</v>
+        <v>0.3023780544425386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1695709323975085</v>
+        <v>0.1695709324950138</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5567092092894744</v>
+        <v>0.5567092088776491</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2796814556699185</v>
+        <v>-0.2796814514076003</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09476064025579044</v>
+        <v>0.09476063937229715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3203145706218354</v>
+        <v>-0.01897725464058234</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2374924589325277</v>
+        <v>-0.1465327652254485</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3581218255590515</v>
+        <v>-0.1088299664760572</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7551459475351763</v>
+        <v>0.6889723574127111</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.036045370980173</v>
+        <v>0.6048116232004375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01897725462494169</v>
+        <v>-0.3203145699989389</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1465327638606888</v>
+        <v>-0.2374924602177076</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1088299618416257</v>
+        <v>-0.3581218318328633</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6889723609664848</v>
+        <v>0.7551459380736495</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6048116221716502</v>
+        <v>-0.03604536740633013</v>
       </c>
     </row>
     <row r="18">
@@ -940,63 +940,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006717324161972233</v>
+        <v>0.006717323940582034</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04185583076521299</v>
+        <v>-0.04185582841690016</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1566751783511524</v>
+        <v>-0.1566751810311308</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8301134267877606</v>
+        <v>0.8301134378939941</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08972562244371504</v>
+        <v>0.08972562158399182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01889530602044841</v>
+        <v>-0.2650015962054501</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.05607244869048971</v>
+        <v>0.084970300904067</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002629354508580523</v>
+        <v>0.005596367903975159</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1873923098069388</v>
+        <v>-0.04604931457693156</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8727849548743269</v>
+        <v>0.7314609960898517</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2650015957411608</v>
+        <v>-0.0188953065370911</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08497030038501488</v>
+        <v>-0.05607244907176379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00559636693905655</v>
+        <v>0.00262935355599888</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.04604931266875236</v>
+        <v>0.1873923085423901</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7314609926375157</v>
+        <v>0.8727849509922407</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.246987809407878</v>
       </c>
       <c r="I2" t="n">
-        <v>4.751932274394586</v>
+        <v>4.751932265115403</v>
       </c>
       <c r="J2" t="n">
-        <v>3.118803338643968</v>
+        <v>3.118803383093232</v>
       </c>
       <c r="K2" t="n">
-        <v>2.379793107208039</v>
+        <v>2.379793064865748</v>
       </c>
       <c r="L2" t="n">
-        <v>2.141113024585132</v>
+        <v>2.14111305618065</v>
       </c>
       <c r="M2" t="n">
-        <v>1.886066874346848</v>
+        <v>1.88606688715619</v>
       </c>
       <c r="N2" t="n">
-        <v>4.902928251207686</v>
+        <v>4.902928252043285</v>
       </c>
       <c r="O2" t="n">
-        <v>2.588309621432392</v>
+        <v>2.58830961334677</v>
       </c>
       <c r="P2" t="n">
-        <v>2.170494328484061</v>
+        <v>2.17049435470839</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.139559861011457</v>
+        <v>2.139559849957482</v>
       </c>
       <c r="R2" t="n">
-        <v>1.895944383163739</v>
+        <v>1.895944382860769</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.04618473368177325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.226282489256885</v>
+        <v>0.2262824888150192</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1485144446973318</v>
+        <v>0.1485144468139634</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1133234812956209</v>
+        <v>0.1133234792793213</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1019577630754825</v>
+        <v>0.1019577645800309</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08981270830223084</v>
+        <v>0.08981270891219954</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2580488553267203</v>
+        <v>0.2580488553706992</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1362268221806522</v>
+        <v>0.1362268217550932</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1142365436044242</v>
+        <v>0.1142365449846521</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1126084137374451</v>
+        <v>0.112608413155657</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09978654648230204</v>
+        <v>0.09978654646635626</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.636702962795705</v>
       </c>
       <c r="I4" t="n">
-        <v>0.226282489256885</v>
+        <v>0.2262824888150192</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3747969339542169</v>
+        <v>0.3747969356289826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4881204152498378</v>
+        <v>0.4881204149083039</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5900781783253203</v>
+        <v>0.5900781794883349</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6798908866275511</v>
+        <v>0.6798908884005344</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2580488553267203</v>
+        <v>0.2580488553706992</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3942756775073726</v>
+        <v>0.3942756771257924</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5085122211117968</v>
+        <v>0.5085122221104444</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.621120634849242</v>
+        <v>0.6211206352661014</v>
       </c>
       <c r="R4" t="n">
-        <v>0.720907181331544</v>
+        <v>0.7209071817324577</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.0725373311896968</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3328217714158656</v>
+        <v>0.3328217698980437</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2184386459921605</v>
+        <v>0.218438648535721</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1666789238163451</v>
+        <v>0.1666789204160664</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1499619498964333</v>
+        <v>0.1499619517182969</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1320987088791953</v>
+        <v>0.1320987094318721</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3579501800080476</v>
+        <v>0.3579501798699878</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1889658276520924</v>
+        <v>0.1889658269566935</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1584622078440457</v>
+        <v>0.1584622096704919</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1562037619454046</v>
+        <v>0.1562037610515137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1384180225504098</v>
+        <v>0.1384180224513132</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.902928251207686</v>
+        <v>4.902928252043285</v>
       </c>
       <c r="C2" t="n">
-        <v>2.588309621432392</v>
+        <v>2.58830961334677</v>
       </c>
       <c r="D2" t="n">
-        <v>2.170494328484061</v>
+        <v>2.17049435470839</v>
       </c>
       <c r="E2" t="n">
-        <v>2.139559861011457</v>
+        <v>2.139559849957482</v>
       </c>
       <c r="F2" t="n">
-        <v>1.895944383163739</v>
+        <v>1.895944382860769</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2580488553267203</v>
+        <v>0.2580488553706992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1362268221806522</v>
+        <v>0.1362268217550932</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1142365436044242</v>
+        <v>0.1142365449846521</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1126084137374451</v>
+        <v>0.112608413155657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09978654648230204</v>
+        <v>0.09978654646635626</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2580488553267203</v>
+        <v>0.2580488553706992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3942756775073726</v>
+        <v>0.3942756771257924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5085122211117968</v>
+        <v>0.5085122221104444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.621120634849242</v>
+        <v>0.6211206352661014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.720907181331544</v>
+        <v>0.7209071817324577</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3579501800080476</v>
+        <v>0.3579501798699878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1889658276520924</v>
+        <v>0.1889658269566935</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1584622078440457</v>
+        <v>0.1584622096704919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1562037619454046</v>
+        <v>0.1562037610515137</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1384180225504098</v>
+        <v>0.1384180224513132</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'QSERV', 'PPUNIT', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QFHH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QFEMLBR', 'QFEMALE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
